--- a/rp/Excel/BackHair_后发.xlsx
+++ b/rp/Excel/BackHair_后发.xlsx
@@ -503,8 +503,8 @@
       <c r="C3" s="1"/>
       <c r="D3" s="1" t="str">
         <v>0-Common
-1-FeMale
-2-Male</v>
+1-Male
+2-FeMale</v>
       </c>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
@@ -556,7 +556,7 @@
         <v>217608</v>
       </c>
       <c r="D5" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
@@ -586,7 +586,7 @@
         <v>221652</v>
       </c>
       <c r="D6" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
@@ -616,7 +616,7 @@
         <v>240053</v>
       </c>
       <c r="D7" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
@@ -646,7 +646,7 @@
         <v>241443</v>
       </c>
       <c r="D8" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
@@ -676,7 +676,7 @@
         <v>349653</v>
       </c>
       <c r="D9" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
@@ -706,7 +706,7 @@
         <v>358219</v>
       </c>
       <c r="D10" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
@@ -736,7 +736,7 @@
         <v>63910</v>
       </c>
       <c r="D11" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
@@ -766,7 +766,7 @@
         <v>64719</v>
       </c>
       <c r="D12" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
@@ -796,7 +796,7 @@
         <v>65777</v>
       </c>
       <c r="D13" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
@@ -826,7 +826,7 @@
         <v>66161</v>
       </c>
       <c r="D14" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
@@ -856,7 +856,7 @@
         <v>66557</v>
       </c>
       <c r="D15" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
